--- a/sample_data/student_answers_example.xlsx
+++ b/sample_data/student_answers_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hong Jun\Desktop\geo_assess_web4\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAD1029-D687-4D9B-842F-5403BAADF7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F133A1B-78B6-4156-93EF-877BCB41DA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="3405" windowWidth="16410" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="student_answers_example (3)" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'student_answers_example (2)'!$A$1:$E$6</definedName>
-    <definedName name="ExternalData_2" localSheetId="0" hidden="1">'student_answers_example (3)'!$A$1:$C$31</definedName>
+    <definedName name="ExternalData_2" localSheetId="0" hidden="1">'student_answers_example (3)'!$A$1:$C$29</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>?대쫫</t>
   </si>
@@ -138,12 +138,6 @@
   </si>
   <si>
     <t>동해안의 해안단구는 과거 해수면 변동과 지반 융기의 증거이며, 석호는 사주에 의해 만이 막혀 형성된 호수이다. 사빈은 파랑에 의해 모래가 퇴적된 지형이다.</t>
-  </si>
-  <si>
-    <t>동해안은 수심이 깊어 대형 선박의 접안이 용이하여 항구 발달에 유리하다. 하지만 조차가 작아 갯벌보다는 모래 해변이 주로 발달한다.</t>
-  </si>
-  <si>
-    <t>동해안은 지반의 비대칭적 융기(경동성 요곡 운동)로 인해 해안선이 단조롭고 급경사를 이루며 수심이 깊다. 해안단구, 석호, 사빈 등이 나타나며, 조수간만의 차가 작아 갯벌 발달은 미미하다.</t>
   </si>
   <si>
     <t>학생 이름</t>
@@ -849,8 +843,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{87189A90-6CDA-4E24-A1B3-F8EA1997EBC0}" name="student_answers_example__2" displayName="student_answers_example__2" ref="A1:C31" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C31" xr:uid="{87189A90-6CDA-4E24-A1B3-F8EA1997EBC0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{87189A90-6CDA-4E24-A1B3-F8EA1997EBC0}" name="student_answers_example__2" displayName="student_answers_example__2" ref="A1:C29" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C29" xr:uid="{87189A90-6CDA-4E24-A1B3-F8EA1997EBC0}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{DFB3BC14-9121-4A93-A495-4D12131E1170}" uniqueName="1" name="학생 이름" queryTableFieldId="1" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{B30CB98B-B1AF-455B-A876-615EF5E9BD7A}" uniqueName="3" name="반" queryTableFieldId="3"/>
@@ -1171,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1015E0-9CEF-48BD-A09F-B2C17A764798}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1186,7 +1180,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -1229,26 +1223,12 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -1341,14 +1321,6 @@
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="C31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
